--- a/scripting/aed/zones/Zone_Names.xlsx
+++ b/scripting/aed/zones/Zone_Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\busch\github\csiem-marvl\scripting\aed\zones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B16082-6BA1-44FE-9462-C930067FEF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0522DF6B-3B50-4FF9-B2E9-840F9665C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8856" yWindow="1512" windowWidth="19524" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1788" yWindow="5616" windowWidth="19524" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone_Names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="151">
   <si>
     <t>Unit_Name</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>CS-BasinMWest</t>
+  </si>
+  <si>
+    <t>IMOS North Rottnest</t>
+  </si>
+  <si>
+    <t>IO-NRSROTT</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,6 +2666,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
